--- a/hsr/trailblazer-fire.xlsx
+++ b/hsr/trailblazer-fire.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>937</v>
+        <v>1089</v>
       </c>
       <c r="C7" t="n">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="D7" t="n">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="E7" t="n">
         <v>95</v>
@@ -564,35 +564,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>1089</v>
+        <v>1241</v>
       </c>
       <c r="C8" t="n">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="D8" t="n">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C9" t="n">
-        <v>601</v>
-      </c>
-      <c r="D9" t="n">
-        <v>606</v>
-      </c>
-      <c r="E9" t="n">
         <v>95</v>
       </c>
     </row>

--- a/hsr/trailblazer-fire.xlsx
+++ b/hsr/trailblazer-fire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>1089</v>
+        <v>937</v>
       </c>
       <c r="C7" t="n">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="D7" t="n">
-        <v>532</v>
+        <v>457</v>
       </c>
       <c r="E7" t="n">
         <v>95</v>
@@ -564,18 +564,35 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C8" t="n">
+        <v>527</v>
+      </c>
+      <c r="D8" t="n">
+        <v>532</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>80</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>1241</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>601</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>606</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>95</v>
       </c>
     </row>
